--- a/result.xlsx
+++ b/result.xlsx
@@ -14,18 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="5">
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>4607027229252</t>
+    <t>b164587402</t>
   </si>
   <si>
-    <t>4607018298519</t>
+    <t>P8174703</t>
   </si>
   <si>
-    <t>2100124001421</t>
+    <t>P8164067</t>
+  </si>
+  <si>
+    <t>P8154529</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,12 +410,337 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
